--- a/ExcelFileProjectSignup.xlsx
+++ b/ExcelFileProjectSignup.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAYAKUMAR P\eclipse-workspace\ProjectBestBuy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA73A0-B82E-46C6-A590-3CBD336A31BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D688-EBE9-4A51-9635-9DFEE42133A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="NegLogin" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Vignesh@123</t>
   </si>
@@ -57,6 +58,27 @@
   </si>
   <si>
     <t>9887656421</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>pass1</t>
+  </si>
+  <si>
+    <t>Vignesh123@gmail</t>
+  </si>
+  <si>
+    <t>Vignesh123gmail.com</t>
+  </si>
+  <si>
+    <t>Vignesh123.com</t>
+  </si>
+  <si>
+    <t>Vignesh123</t>
+  </si>
+  <si>
+    <t>Vignesh@</t>
   </si>
 </sst>
 </file>
@@ -504,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADC0D8B-3B5C-453A-959F-07456DE395FD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,4 +559,55 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF27270-84E7-449C-A2E0-DFE47C72D570}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C1A62FB6-DA8A-429F-BF6A-91AF20D4AC57}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{C473B8C9-6EAE-404D-A6F4-FE3445A6A2AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelFileProjectSignup.xlsx
+++ b/ExcelFileProjectSignup.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIJAYAKUMAR P\eclipse-workspace\ProjectBestBuy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3D688-EBE9-4A51-9635-9DFEE42133A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9EF2B2-FD53-436C-9932-9FC7D4BEA4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="NegLogin" sheetId="4" r:id="rId3"/>
+    <sheet name="NegCreateacc" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Vignesh@123</t>
   </si>
@@ -79,6 +80,54 @@
   </si>
   <si>
     <t>Vignesh@</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>nemail</t>
+  </si>
+  <si>
+    <t>npass</t>
+  </si>
+  <si>
+    <t>cpass</t>
+  </si>
+  <si>
+    <t>nmobile</t>
+  </si>
+  <si>
+    <t>vignesh</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>vign.com</t>
+  </si>
+  <si>
+    <t>Vig123</t>
+  </si>
+  <si>
+    <t>Vig</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>vign@gmail</t>
+  </si>
+  <si>
+    <t>87685439</t>
+  </si>
+  <si>
+    <t>876589</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -565,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF27270-84E7-449C-A2E0-DFE47C72D570}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -610,4 +659,102 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6FAFBA-5511-4EC8-B514-50265C71D107}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{BC205A37-5B84-4EA4-BAD3-AA870E8063F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>